--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\account-records\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDC1A68-9DB2-47C3-82E2-45A0409D1681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C0806F9C-9376-49B4-9F1E-46A910E7899B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,9 +27,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Hafiz Muhammad Imran</t>
+  </si>
+  <si>
+    <t>midnightshadow0606@gmail.com</t>
+  </si>
+  <si>
+    <t>)P9n)x9X12FXsTWM:;ylu0nT-H4y-L5f</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horror Storys </t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Youtube Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +87,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,14 +125,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -372,20 +461,437 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDAAA26-4E59-4F50-9B1D-A7ED095623EC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>35952</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\account-records\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765473F2-1F77-4B22-878D-BE7E01790C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>S.no</t>
   </si>
@@ -73,13 +70,37 @@
   </si>
   <si>
     <t>Youtube Name</t>
+  </si>
+  <si>
+    <t>Midnight Shadow</t>
+  </si>
+  <si>
+    <t>Youtube Handel</t>
+  </si>
+  <si>
+    <t>MidnightShadow-vk6lh</t>
+  </si>
+  <si>
+    <t>Recovery Email</t>
+  </si>
+  <si>
+    <t>itz_imran@outlook.com</t>
+  </si>
+  <si>
+    <t>Midnight Shadow Shorts</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>midnightshadowshorts0606@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,26 +482,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,13 +528,19 @@
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -528,28 +559,58 @@
       <c r="F2" s="4">
         <v>35952</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>35952</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -561,8 +622,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -574,8 +637,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -587,8 +652,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -600,8 +667,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -613,8 +682,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -626,8 +697,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -639,8 +712,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -652,8 +727,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -665,8 +742,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -678,8 +757,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -691,8 +772,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -704,8 +787,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -717,8 +802,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -730,8 +817,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -743,8 +832,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -756,8 +847,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -769,8 +862,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -782,8 +877,10 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -795,8 +892,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -808,8 +907,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -821,8 +922,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -834,8 +937,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -847,8 +952,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -860,8 +967,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -873,8 +982,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -886,12 +997,17 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{59A0507C-60F2-4E5B-933C-F5621A32D3F9}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{DC71E037-F971-4577-9892-9CD7F644C719}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{D7C0753E-C7AC-4BBA-B164-AD00B133860B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\account-records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765473F2-1F77-4B22-878D-BE7E01790C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D7601-F157-4B3C-8248-2AAF918BF9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=" Accounts" sheetId="1" r:id="rId1"/>
+    <sheet name="Gmails" sheetId="3" r:id="rId2"/>
+    <sheet name="Tools" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>S.no</t>
   </si>
@@ -87,19 +89,52 @@
     <t>itz_imran@outlook.com</t>
   </si>
   <si>
-    <t>Midnight Shadow Shorts</t>
-  </si>
-  <si>
-    <t>Shorts</t>
-  </si>
-  <si>
-    <t>midnightshadowshorts0606@gmail.com</t>
+    <t>Andrew Lee</t>
+  </si>
+  <si>
+    <t>andrewleeconnects@gmail.com</t>
+  </si>
+  <si>
+    <t>Cd?8hxL74*}{o$N&amp;Dl'}\n90z@fZq$R9</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>sarching keyword</t>
+  </si>
+  <si>
+    <t>Ryan Robinson</t>
+  </si>
+  <si>
+    <t>https://www.ryrob.com</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Phone NO</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,12 +204,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -236,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +324,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,22 +526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection sqref="A1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="17.42578125" customWidth="1"/>
+    <col min="1" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,8 +576,11 @@
       <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -556,7 +596,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>35952</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -574,45 +614,37 @@
       <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>35952</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="5">
+        <v>34341</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -624,10 +656,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -639,10 +672,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -654,10 +688,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -669,10 +704,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -684,10 +720,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -699,10 +736,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -714,10 +752,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -729,10 +768,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -744,10 +784,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -759,10 +800,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -774,10 +816,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -789,10 +832,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -804,10 +848,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -819,10 +864,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -834,10 +880,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -849,10 +896,11 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -864,10 +912,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -879,10 +928,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -894,10 +944,11 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -909,10 +960,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -924,10 +976,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -939,10 +992,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -954,10 +1008,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -969,10 +1024,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -984,30 +1040,612 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{59A0507C-60F2-4E5B-933C-F5621A32D3F9}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{DC71E037-F971-4577-9892-9CD7F644C719}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{D7C0753E-C7AC-4BBA-B164-AD00B133860B}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{2E3AAC00-4CAB-49FF-96E2-270CCCA026C0}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{2B867AB0-240F-4BDA-973A-F62ED2C29B8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EC7EF8-A65E-46E4-BDA6-40F287A20BEB}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5">
+        <v>34341</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{F23AB115-A6B1-47BC-B10E-55CBB2A97A54}">
+      <formula1>$K$3:$K$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FCEEB3E6-4D64-4301-9192-B00B4AF997E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347CD566-4FF2-484F-ABB2-79301DD8A1DE}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1AB5DC49-806A-4762-A68D-28B564579949}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\account-records\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D7601-F157-4B3C-8248-2AAF918BF9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name=" Accounts" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="Tools" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>S.no</t>
   </si>
@@ -68,9 +62,6 @@
     <t xml:space="preserve">Horror Storys </t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>Youtube Name</t>
   </si>
   <si>
@@ -126,16 +117,31 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>imranshadowsoftheunknown</t>
+  </si>
+  <si>
+    <t>salma@12345</t>
+  </si>
+  <si>
+    <t>Shadows of the Unknown</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +161,11 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -204,13 +215,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -272,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -518,21 +530,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection sqref="A1:L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
@@ -542,7 +554,7 @@
     <col min="11" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -574,13 +586,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -600,49 +612,63 @@
         <v>35952</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="5">
-        <v>34341</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35952</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -658,7 +684,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -674,7 +700,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -690,7 +716,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -706,7 +732,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -722,7 +748,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -738,7 +764,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -754,7 +780,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -770,7 +796,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -786,7 +812,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -802,7 +828,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -818,7 +844,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -834,7 +860,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -850,7 +876,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -866,7 +892,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -882,7 +908,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -898,7 +924,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -914,7 +940,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -930,7 +956,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -946,7 +972,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -962,7 +988,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -978,7 +1004,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -994,7 +1020,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1010,7 +1036,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1026,7 +1052,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1044,25 +1070,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{59A0507C-60F2-4E5B-933C-F5621A32D3F9}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{2E3AAC00-4CAB-49FF-96E2-270CCCA026C0}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{2B867AB0-240F-4BDA-973A-F62ED2C29B8A}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3" display="andrewleeconnects@gmail.com"/>
+    <hyperlink ref="L2" r:id="rId4" display="itz_imran@outlook.com"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId6"/>
+    <hyperlink ref="L3" r:id="rId7" display="itz_imran@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EC7EF8-A65E-46E4-BDA6-40F287A20BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1074,7 +1103,7 @@
     <col min="8" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,27 +1123,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5">
@@ -1123,10 +1152,10 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1139,10 +1168,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1155,10 +1184,10 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1171,7 +1200,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1184,7 +1213,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1197,7 +1226,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1210,7 +1239,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1223,7 +1252,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1236,7 +1265,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1249,7 +1278,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1262,7 +1291,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1275,7 +1304,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1288,7 +1317,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1301,7 +1330,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1314,7 +1343,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1327,7 +1356,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1340,7 +1369,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1353,7 +1382,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1366,7 +1395,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1379,7 +1408,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1392,7 +1421,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1405,7 +1434,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1418,7 +1447,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1431,7 +1460,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1444,7 +1473,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1459,26 +1488,26 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{F23AB115-A6B1-47BC-B10E-55CBB2A97A54}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>$K$3:$K$4</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FCEEB3E6-4D64-4301-9192-B00B4AF997E6}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347CD566-4FF2-484F-ABB2-79301DD8A1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1486,35 +1515,35 @@
     <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1522,7 +1551,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1530,7 +1559,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1538,7 +1567,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1546,7 +1575,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1554,7 +1583,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1562,7 +1591,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1570,7 +1599,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1578,7 +1607,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1586,7 +1615,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1594,7 +1623,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1602,7 +1631,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1610,7 +1639,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1618,7 +1647,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1626,7 +1655,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1634,7 +1663,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1644,7 +1673,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1AB5DC49-806A-4762-A68D-28B564579949}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
